--- a/CS438/assignment2/Speedup.xlsx
+++ b/CS438/assignment2/Speedup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\Monmouth\CS438\assignment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FECC939-924C-487D-BA6E-D33685F5B182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33252A98-DA2E-4EFB-A8CF-3B711D4D698F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{1B59FFEF-E26E-4F2A-A0B9-8F717CA32671}"/>
+    <workbookView xWindow="2505" yWindow="2505" windowWidth="21600" windowHeight="11385" xr2:uid="{1B59FFEF-E26E-4F2A-A0B9-8F717CA32671}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Number of threads</t>
-  </si>
-  <si>
-    <t>Execution Time (sec)</t>
   </si>
   <si>
     <t>Speedup</t>
@@ -49,6 +46,15 @@
   </si>
   <si>
     <t>No I/O Burst [1, 700000]</t>
+  </si>
+  <si>
+    <t>I/O Burst (10-15), [1, 200000]</t>
+  </si>
+  <si>
+    <t>Time (sec)</t>
+  </si>
+  <si>
+    <t>Big I/O Burst (50, 55), [1-50000]</t>
   </si>
 </sst>
 </file>
@@ -150,640 +156,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution Time (No I/O Burst)</a:t>
+              <a:t>Execution Time</a:t>
             </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="0"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>45.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.747999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-DD80-4965-B1EC-AD91E4F8B252}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>45.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.747999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-DD80-4965-B1EC-AD91E4F8B252}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="2"/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>45.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.747999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD80-4965-B1EC-AD91E4F8B252}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$3:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$3:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>45.658000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>36.747999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>27.271999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.443000000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24.084</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.791</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>23.831</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.738</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-DD80-4965-B1EC-AD91E4F8B252}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="400490352"/>
-        <c:axId val="472162208"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="400490352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="128"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Number of threads</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="472162208"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="472162208"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Execution</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time (sec)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="400490352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Speedup (No I/O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Burst)</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -825,6 +199,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>[0]</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -884,33 +261,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$10</c:f>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>45.658000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2424621748122349</c:v>
+                  <c:v>36.747999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6741713112349663</c:v>
+                  <c:v>27.271999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8679376508611871</c:v>
+                  <c:v>24.443000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8957814316558712</c:v>
+                  <c:v>24.084</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9191290824261276</c:v>
+                  <c:v>23.791</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9159078511182914</c:v>
+                  <c:v>23.831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.8456625434554128</c:v>
+                  <c:v>24.738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,7 +295,316 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4963-41C5-A0CA-73962D485A64}"/>
+              <c16:uniqueId val="{00000000-D556-490B-AC41-1B3450D3393B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>[1-5]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>78.147999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.143999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.803000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.558999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.74</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2869999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8069999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D556-490B-AC41-1B3450D3393B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>[10-15]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>250.77500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.742999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.649000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.401</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.922000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.6040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1950000000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D556-490B-AC41-1B3450D3393B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>[50-55]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>281.28300000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>146.899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.227999999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43.122999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.224</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3929999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2450000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D556-490B-AC41-1B3450D3393B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,15 +616,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="365906576"/>
-        <c:axId val="402956256"/>
+        <c:axId val="985019904"/>
+        <c:axId val="1077885216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="365906576"/>
+        <c:axId val="985019904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="128"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -977,7 +661,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number of threads</a:t>
+                  <a:t>Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1048,15 +732,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402956256"/>
+        <c:crossAx val="1077885216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="402956256"/>
+        <c:axId val="1077885216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1095,7 +778,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Speedup</a:t>
+                  <a:t>Execution time (sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1166,7 +849,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="365906576"/>
+        <c:crossAx val="985019904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1178,15 +861,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1222,7 +929,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1257,11 +964,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Execution Time (Small I/O</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Burst)</a:t>
+              <a:t>Speedup</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1304,6 +1007,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>[0]</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1363,33 +1069,33 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$10</c:f>
+              <c:f>Sheet1!$C$3:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>78.147999999999996</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38.143999999999998</c:v>
+                  <c:v>1.2424621748122349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.803000000000001</c:v>
+                  <c:v>1.6741713112349663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.558999999999999</c:v>
+                  <c:v>1.8679376508611871</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.74</c:v>
+                  <c:v>1.8957814316558712</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.2869999999999999</c:v>
+                  <c:v>1.9191290824261276</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.9119999999999999</c:v>
+                  <c:v>1.9159078511182914</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8069999999999999</c:v>
+                  <c:v>1.8456625434554128</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,7 +1103,316 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF84-4C2B-A4EA-C214F07745AA}"/>
+              <c16:uniqueId val="{00000000-8B3B-47C3-9B2B-3192242A35D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>[1-5]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0487625838926173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1561452959634098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4010796476939102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.614634146341462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.774870702768482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26.83653846153846</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.840399002493765</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B3B-47C3-9B2B-3192242A35D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>[10-15]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9855817194254857</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7573228653192099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0345591741703837</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.925880109272718</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.960538362937189</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37.973198061780742</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.779499404052437</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B3B-47C3-9B2B-3192242A35D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>[50-55]</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9148054105201533</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5502978744888174</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5228068548106588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.084679498195568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.270644283121598</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.047206817259571</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.262190812720846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B3B-47C3-9B2B-3192242A35D8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1409,11 +1424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2081121311"/>
-        <c:axId val="2081246095"/>
+        <c:axId val="1072974880"/>
+        <c:axId val="1077900192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2081121311"/>
+        <c:axId val="1072974880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1454,11 +1469,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of threads</a:t>
+                  <a:t>Threads</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1529,12 +1540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081246095"/>
+        <c:crossAx val="1077900192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2081246095"/>
+        <c:axId val="1077900192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,11 +1586,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Execution</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> time (sec)</a:t>
+                  <a:t>Execution time (sec)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1650,7 +1657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081121311"/>
+        <c:crossAx val="1072974880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1662,6 +1669,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2816,22 +2854,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>195629</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>46891</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>491636</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123091</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8C6C735-456B-413A-A923-DA9E724AF218}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442F0E89-3D0F-4695-A571-B90C8AEC81F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2851,23 +2889,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>186104</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>71803</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>482111</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>148003</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21094B54-9D49-4740-AF92-BBBA53863E36}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46E1E2A8-8B0E-4F16-87BA-AA2BCE2685C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2880,42 +2918,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>738187</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4AB550C-4166-4C39-A8AC-E6C7B546BDB3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3221,46 +3223,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE7472D-8FCB-4419-A9C8-0A36785A7CC3}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3278,8 +3301,22 @@
         <f>$E$3/E3</f>
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>250.77500000000001</v>
+      </c>
+      <c r="I3">
+        <f>$H$3/H3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>281.28300000000002</v>
+      </c>
+      <c r="L3">
+        <f>$K$3/K3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3297,8 +3334,22 @@
         <f t="shared" ref="F4:F10" si="0">$E$3/E4</f>
         <v>2.0487625838926173</v>
       </c>
+      <c r="H4">
+        <v>126.298</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="1">$H$3/H4</f>
+        <v>1.9855817194254857</v>
+      </c>
+      <c r="K4">
+        <v>146.899</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="2">$K$3/K4</f>
+        <v>1.9148054105201533</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3306,7 +3357,7 @@
         <v>27.271999999999998</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:C10" si="1">$B$3/B5</f>
+        <f t="shared" ref="C5:C10" si="3">$B$3/B5</f>
         <v>1.6741713112349663</v>
       </c>
       <c r="E5">
@@ -3316,8 +3367,22 @@
         <f t="shared" si="0"/>
         <v>4.1561452959634098</v>
       </c>
+      <c r="H5">
+        <v>66.742999999999995</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>3.7573228653192099</v>
+      </c>
+      <c r="K5">
+        <v>79.227999999999994</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>3.5502978744888174</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -3325,7 +3390,7 @@
         <v>24.443000000000001</v>
       </c>
       <c r="C6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8679376508611871</v>
       </c>
       <c r="E6">
@@ -3335,8 +3400,22 @@
         <f t="shared" si="0"/>
         <v>7.4010796476939102</v>
       </c>
+      <c r="H6">
+        <v>35.649000000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>7.0345591741703837</v>
+      </c>
+      <c r="K6">
+        <v>43.122999999999998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>6.5228068548106588</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>16</v>
       </c>
@@ -3344,7 +3423,7 @@
         <v>24.084</v>
       </c>
       <c r="C7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8957814316558712</v>
       </c>
       <c r="E7">
@@ -3354,8 +3433,22 @@
         <f t="shared" si="0"/>
         <v>13.614634146341462</v>
       </c>
+      <c r="H7">
+        <v>19.401</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>12.925880109272718</v>
+      </c>
+      <c r="K7">
+        <v>23.276</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>12.084679498195568</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>32</v>
       </c>
@@ -3363,7 +3456,7 @@
         <v>23.791</v>
       </c>
       <c r="C8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9191290824261276</v>
       </c>
       <c r="E8">
@@ -3373,8 +3466,22 @@
         <f t="shared" si="0"/>
         <v>23.774870702768482</v>
       </c>
+      <c r="H8">
+        <v>10.922000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>22.960538362937189</v>
+      </c>
+      <c r="K8">
+        <v>13.224</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>21.270644283121598</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>64</v>
       </c>
@@ -3382,7 +3489,7 @@
         <v>23.831</v>
       </c>
       <c r="C9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9159078511182914</v>
       </c>
       <c r="E9">
@@ -3392,8 +3499,22 @@
         <f t="shared" si="0"/>
         <v>26.83653846153846</v>
       </c>
+      <c r="H9">
+        <v>6.6040000000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>37.973198061780742</v>
+      </c>
+      <c r="K9">
+        <v>7.3929999999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>38.047206817259571</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>128</v>
       </c>
@@ -3401,7 +3522,7 @@
         <v>24.738</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8456625434554128</v>
       </c>
       <c r="E10">
@@ -3410,6 +3531,20 @@
       <c r="F10">
         <f t="shared" si="0"/>
         <v>27.840399002493765</v>
+      </c>
+      <c r="H10">
+        <v>4.1950000000000003</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>59.779499404052437</v>
+      </c>
+      <c r="K10">
+        <v>4.2450000000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>66.262190812720846</v>
       </c>
     </row>
   </sheetData>
